--- a/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
+++ b/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_SetupNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA0256F-2497-48ED-94E8-292570EC1384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0520AF6-86BA-49EC-9B32-DABC9CF4CC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-6285" yWindow="-15480" windowWidth="21600" windowHeight="15435" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
@@ -438,7 +438,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
+++ b/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_SetupNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0520AF6-86BA-49EC-9B32-DABC9CF4CC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E94C26-21F7-4694-B624-5182D21F3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6285" yWindow="-15480" windowWidth="21600" windowHeight="15435" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step03A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Comment</t>
   </si>
@@ -59,10 +59,22 @@
     <t>all sigmoid</t>
   </si>
   <si>
-    <t>random between [-1,1]</t>
-  </si>
-  <si>
     <t>NeuralNetworkScenario1.mat</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>trained in Step05A, scenario 3</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>WeightInitializationMethodID.Uniform</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario2.mat</t>
   </si>
 </sst>
 </file>
@@ -435,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +458,7 @@
     <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
@@ -482,7 +494,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -491,7 +503,24 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
+++ b/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_SetupNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E94C26-21F7-4694-B624-5182D21F3D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4455D5A9-8E52-4887-82FC-709D03EBB35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
+++ b/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_SetupNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4455D5A9-8E52-4887-82FC-709D03EBB35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07C844-7DBE-477E-AFDC-0A95D752C73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Comment</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>NeuralNetworkScenario2.mat</t>
+  </si>
+  <si>
+    <t>WeightInitializationMethodID.Glorot</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario3.mat</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,6 +529,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
+++ b/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_SetupNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07C844-7DBE-477E-AFDC-0A95D752C73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2771097-553D-4C82-B2D3-284B5FAFA327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17025" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView minimized="1" xWindow="19905" yWindow="-14370" windowWidth="21600" windowHeight="15435" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step03A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Comment</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>NeuralNetworkScenario3.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario4.mat</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,6 +546,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
+++ b/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_SetupNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2771097-553D-4C82-B2D3-284B5FAFA327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BEE47E-8E29-4B70-BEC9-9D30898C4DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="19905" yWindow="-14370" windowWidth="21600" windowHeight="15435" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="-8325" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step03A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Comment</t>
   </si>
@@ -56,9 +56,6 @@
     <t>[28*28 50 10]</t>
   </si>
   <si>
-    <t>all sigmoid</t>
-  </si>
-  <si>
     <t>NeuralNetworkScenario1.mat</t>
   </si>
   <si>
@@ -84,6 +81,21 @@
   </si>
   <si>
     <t>NeuralNetworkScenario4.mat</t>
+  </si>
+  <si>
+    <t>[N/A; ReLU; Sigmoid]</t>
+  </si>
+  <si>
+    <t>[N/A; Sigmoid; Sigmoid]</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario5.mat</t>
+  </si>
+  <si>
+    <t>Partially trained network</t>
+  </si>
+  <si>
+    <t>only about a 50% accuracy</t>
   </si>
 </sst>
 </file>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,55 +515,78 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
+++ b/Applications/MNIST/Step03_SetupNeuralNetwork/Step03_IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\MatlabAIML\Applications\MNIST\Step03_SetupNeuralNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BEE47E-8E29-4B70-BEC9-9D30898C4DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D76CCD-1A9F-4666-B2B9-31ED9D8B3983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8325" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
+    <workbookView xWindow="2520" yWindow="5070" windowWidth="21600" windowHeight="15435" xr2:uid="{62938247-60B1-4176-96BA-8E8C4D4BE688}"/>
   </bookViews>
   <sheets>
     <sheet name="Step03A" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Comment</t>
   </si>
@@ -95,7 +95,43 @@
     <t>Partially trained network</t>
   </si>
   <si>
-    <t>only about a 50% accuracy</t>
+    <t>NeuralNetworkScenario6.mat</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario7.mat</t>
+  </si>
+  <si>
+    <t>about 89% accurate</t>
+  </si>
+  <si>
+    <t>about 68% accurate</t>
+  </si>
+  <si>
+    <t>about 50% accurate</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario8.mat</t>
+  </si>
+  <si>
+    <t>about 91% accurate</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario9.mat</t>
+  </si>
+  <si>
+    <t>about 69% accurate.  D values are all 0.1 and 0.9</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario10.mat</t>
+  </si>
+  <si>
+    <t>about 87% accurate.  D values are all 0.1 and 0.9</t>
+  </si>
+  <si>
+    <t>NeuralNetworkScenario11.mat</t>
+  </si>
+  <si>
+    <t>about 88% accurate.  D values are all 0.1 and 0.9</t>
   </si>
 </sst>
 </file>
@@ -172,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -212,7 +248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -318,7 +354,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,7 +496,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2242A2-D373-44A6-9DF2-E2416E056A77}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +622,109 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
